--- a/pred_ohlcv/54_21/2019-10-28 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ETHOS ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-475518.11591125</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-472708.00591125</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-475508.00591125</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-461952.25951125</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-454405.36591125</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-453723.31991125</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-437013.6320112501</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-436707.0848112501</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-446161.2980112501</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-424211.2983112501</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-460912.2304112501</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-477749.2277112501</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-473985.7119112501</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-448927.1655112501</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-449860.7402112501</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-483193.45881125</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-480655.8106112501</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-484621.01861125</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-484611.01861125</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-486095.2325112501</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-501046.2325112501</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-486691.2325112501</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-485691.2325112501</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-485690.7636112501</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-519305.7636112501</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-513925.7636112501</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-511895.7636112501</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-512690.7635112501</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-511933.7636112501</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-502396.7597050001</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-500432.7636036401</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-493647.7636036401</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-394023.4992108501</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-394958.4992108501</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-382934.8534108501</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-379612.8535108501</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-383241.8535108501</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-367654.3104108501</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-388808.3104108501</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-376392.8527108501</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-374329.10811085</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-374339.10811085</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-374349.10811085</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-340089.47441085</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-336893.54661085</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-338050.73911085</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-356151.2065108501</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-409654.5143108501</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-412322.2049100801</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-444296.1086100801</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-433911.1382100802</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-422886.4941100802</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-422896.4941100802</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-436765.3307100802</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-481186.0121100802</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-474726.1062100802</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-493741.7459100801</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-526473.3856100801</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-531353.3856100801</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-594277.21131008</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-598885.7931100801</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-616721.88291008</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-576343.18191008</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-579883.25851008</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-577286.25851008</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-542400.25151008</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-543905.4970100799</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-531750.5259100799</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-504785.6042100799</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-507256.2813100799</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-514048.0207100799</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-513248.0207100799</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-515811.2188100799</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-515801.2188100799</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-516662.2187100799</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-461831.0627100799</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-384403.0061100799</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-293294.2586100799</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-24024.59883167992</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-89774.41283167992</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-180939.8020316799</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-116649.8042316799</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-158308.5581316799</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-133343.8227316799</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-54326.57143167993</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-50071.40243167993</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-52182.40243167993</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-51834.40243167993</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-83001.59973167992</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-156733.9846316799</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-158322.9845316799</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-164587.0590316799</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-159945.0590316799</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-190848.6965316799</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-281952.86593168</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-301557.59693168</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-301245.17453168</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-299045.41223168</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 ETHOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ETHOS ohlcv.xlsx
@@ -1848,7 +1848,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-438702.2732112501</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-446161.2980112501</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-448917.1655112501</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-449860.7402112501</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-468515.2131112501</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-484621.01861125</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-484611.01861125</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-486081.01851125</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-486070.9185112501</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-487070.9185112501</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-487095.2325112501</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-486095.2325112501</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-501046.2325112501</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-486691.2325112501</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-485691.2325112501</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-489595.7636112501</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-485690.7636112501</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-519305.7636112501</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-513925.7636112501</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-511895.7636112501</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-512690.7635112501</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-502396.7597050001</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-500432.7636036401</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-493647.7636036401</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-394023.4992108501</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-394958.4992108501</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-396829.8534108501</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-382934.8534108501</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-379612.8535108501</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-383241.8535108501</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-368706.3105108501</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-370264.3104108501</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-367654.3104108501</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-388808.3104108501</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-376392.8527108501</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-400445.47711085</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-401780.47711085</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-374329.10811085</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-374339.10811085</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-374349.10811085</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-340089.47441085</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-357566.95571085</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-361380.54661085</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-338093.54661085</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-336893.54661085</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-338050.73911085</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-337940.73911085</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-356151.2065108501</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-356039.7359108501</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-409654.5143108501</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-444296.1086100801</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-433911.1382100802</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-422886.4941100802</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-422896.4941100802</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-442311.3229100801</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-436765.3307100802</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-481186.0121100802</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-481176.0121100802</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-474726.1062100802</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-493751.8659100801</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-493741.7459100801</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-526473.3856100801</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-531363.3856100801</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-552249.69231008</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-583115.41081008</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-583115.41081008</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-593603.1080100801</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-600112.5024100801</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-598306.7077100801</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-613113.60151008</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-613113.60151008</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-575107.18201008</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-576343.18191008</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-569565.2598100801</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-579883.25851008</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-577286.25851008</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-576435.94851008</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-570004.56741008</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-556443.09141008</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-542400.25151008</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-543905.4970100799</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-531750.5259100799</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-507256.2813100799</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-513238.0207100799</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-514943.0207100799</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-515811.2188100799</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-515801.2188100799</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-516662.2187100799</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-518328.7890100799</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-510797.0246100799</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-461831.0627100799</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-384403.0061100799</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-389479.9763100799</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-293294.2586100799</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-250970.5769100799</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-146227.3059531499</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-24024.59883167992</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-89774.41283167992</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-180939.8020316799</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-116649.8042316799</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-158308.5581316799</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-133343.8227316799</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-64842.19603167992</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-54326.57143167993</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-50071.40243167993</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-52182.40243167993</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-51834.40243167993</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-83001.59973167992</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-156743.9846316799</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-158332.9845316799</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-158322.9845316799</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-164587.0590316799</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-159945.0590316799</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-190848.6965316799</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-189481.1937316799</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-301245.17453168</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-299045.41223168</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
